--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="616">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -426,19 +426,23 @@
   </si>
   <si>
     <t>Practitioner.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -451,14 +455,14 @@
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -521,17 +525,7 @@
     <t>Practitioner.identifier.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -741,6 +735,10 @@
     <t>通常此人員總是被指定一個特定的數值型的唯一識別碼（identifier）</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+id-card-number:身分證號共十碼，首碼以英文字母代表直轄市、縣（市）別，第二碼至第十碼為數字碼。 {value.matches('^[A-Za-z][0-9]{9}$')}</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:idCardNumber.id</t>
   </si>
   <si>
@@ -781,6 +779,9 @@
   </si>
   <si>
     <t>Practitioner.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>擴充的資料項目</t>
   </si>
   <si>
     <t>Practitioner.identifier:idCardNumber.type.coding</t>
@@ -1146,7 +1147,7 @@
 例如：護照號碼='http://www.boca.gov.tw。</t>
   </si>
   <si>
-    <t>http://www.boca.gov.tw</t>
+    <t>http://hl7.org/fhir/sid/passport-TWN</t>
   </si>
   <si>
     <t>Practitioner.identifier:passportNumber.value</t>
@@ -1306,7 +1307,7 @@
     <t>Practitioner.identifier:medicalLicenseNumber.system</t>
   </si>
   <si>
-    <t>身份識別碼（identifier）的命名空間（namespace），可至 [twTerminology](https://twcore.mohw.gov.tw/ts/namingsystem.jsp?status=active&amp;amp;type=0) 申請或查詢命名系統。</t>
+    <t>身份識別碼（identifier）的命名空間（namespace），可至 [twTerminology](https://fhir.mohw.gov.tw/ts/namingsystem.jsp?status=active&amp;amp;type=0) 申請或查詢命名系統。</t>
   </si>
   <si>
     <t>Practitioner.identifier:medicalLicenseNumber.value</t>
@@ -1718,7 +1719,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Address-twcore}
+    <t xml:space="preserve">Address {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Address-tw}
 </t>
   </si>
   <si>
@@ -1848,9 +1849,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -3217,7 +3215,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3236,16 +3234,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3295,7 +3293,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3307,13 +3305,13 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -3324,14 +3322,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3350,19 +3348,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3411,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3423,13 +3421,13 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -3440,10 +3438,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3466,17 +3464,17 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3513,17 +3511,17 @@
         <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3538,24 +3536,24 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3578,13 +3576,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3635,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3653,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3664,14 +3662,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3690,16 +3688,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3737,19 +3735,19 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3761,13 +3759,13 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3778,10 +3776,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3807,16 +3805,16 @@
         <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3841,31 +3839,31 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3883,7 +3881,7 @@
         <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3894,10 +3892,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3920,19 +3918,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3957,49 +3955,49 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -4010,10 +4008,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4021,7 +4019,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -4039,16 +4037,16 @@
         <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4061,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>20</v>
@@ -4097,7 +4095,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4112,13 +4110,13 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -4126,10 +4124,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4137,7 +4135,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -4152,16 +4150,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4175,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>20</v>
@@ -4211,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4226,13 +4224,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -4240,10 +4238,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4266,13 +4264,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4323,7 +4321,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4338,13 +4336,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -4352,10 +4350,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4378,16 +4376,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4437,7 +4435,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4452,13 +4450,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4466,13 +4464,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
@@ -4494,17 +4492,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4553,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4565,27 +4563,27 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4608,13 +4606,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4665,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4683,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4694,14 +4692,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4720,16 +4718,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4767,19 +4765,19 @@
         <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4791,13 +4789,13 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4808,10 +4806,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4837,16 +4835,16 @@
         <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4856,29 +4854,29 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4911,7 @@
         <v>131</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4924,10 +4922,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4950,19 +4948,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4987,13 +4985,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -5011,7 +5009,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5020,16 +5018,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -5040,10 +5038,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5066,13 +5064,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5123,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5141,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -5152,10 +5150,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5178,13 +5176,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5223,19 +5221,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5247,7 +5245,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -5360,7 +5358,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -5406,10 +5404,10 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>259</v>
@@ -5463,7 +5461,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5481,7 +5479,7 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -5518,10 +5516,10 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>262</v>
@@ -5565,19 +5563,19 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5589,7 +5587,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5748,7 +5746,7 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>276</v>
@@ -5976,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>293</v>
@@ -6033,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6088,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>297</v>
@@ -6133,17 +6131,17 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6155,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -6257,7 +6255,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6266,10 +6264,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -6312,7 +6310,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>306</v>
@@ -6424,7 +6422,7 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>310</v>
@@ -6654,7 +6652,7 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>328</v>
@@ -6747,7 +6745,7 @@
         <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6776,13 +6774,13 @@
         <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6795,7 +6793,7 @@
         <v>337</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>20</v>
@@ -6831,7 +6829,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6846,13 +6844,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6863,7 +6861,7 @@
         <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6886,16 +6884,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6909,7 +6907,7 @@
         <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>20</v>
@@ -6945,7 +6943,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6960,13 +6958,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6977,7 +6975,7 @@
         <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7000,13 +6998,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7057,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7072,13 +7070,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -7089,7 +7087,7 @@
         <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7115,13 +7113,13 @@
         <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7171,7 +7169,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7186,13 +7184,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7203,7 +7201,7 @@
         <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>344</v>
@@ -7228,7 +7226,7 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>345</v>
@@ -7238,7 +7236,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7287,7 +7285,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7302,16 +7300,16 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -7319,7 +7317,7 @@
         <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7342,13 +7340,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7399,7 +7397,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7417,7 +7415,7 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7431,11 +7429,11 @@
         <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7454,16 +7452,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7501,19 +7499,19 @@
         <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7525,13 +7523,13 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7545,7 +7543,7 @@
         <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7571,16 +7569,16 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7590,29 +7588,29 @@
         <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="T47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7647,7 +7645,7 @@
         <v>131</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7661,7 +7659,7 @@
         <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7684,19 +7682,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7721,13 +7719,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7745,7 +7743,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7754,16 +7752,16 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7777,7 +7775,7 @@
         <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7800,13 +7798,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7857,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7875,7 +7873,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7889,7 +7887,7 @@
         <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7912,13 +7910,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7957,19 +7955,19 @@
         <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7981,7 +7979,7 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8094,7 +8092,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>99</v>
@@ -8140,10 +8138,10 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>259</v>
@@ -8197,7 +8195,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8215,7 +8213,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -8252,10 +8250,10 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>262</v>
@@ -8299,19 +8297,19 @@
         <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8323,7 +8321,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8482,7 +8480,7 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>276</v>
@@ -8710,7 +8708,7 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>310</v>
@@ -8940,7 +8938,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>328</v>
@@ -9033,7 +9031,7 @@
         <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9062,13 +9060,13 @@
         <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9081,7 +9079,7 @@
         <v>365</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>20</v>
@@ -9117,7 +9115,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9132,13 +9130,13 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
@@ -9149,7 +9147,7 @@
         <v>366</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9172,16 +9170,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9195,7 +9193,7 @@
         <v>20</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>20</v>
@@ -9231,7 +9229,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9246,13 +9244,13 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -9263,7 +9261,7 @@
         <v>368</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9286,13 +9284,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9343,7 +9341,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9358,13 +9356,13 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9375,7 +9373,7 @@
         <v>369</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9401,13 +9399,13 @@
         <v>342</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9457,7 +9455,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9472,13 +9470,13 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9489,7 +9487,7 @@
         <v>370</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>371</v>
@@ -9514,7 +9512,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>372</v>
@@ -9524,7 +9522,7 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9573,7 +9571,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9588,16 +9586,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9605,7 +9603,7 @@
         <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9628,13 +9626,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9685,7 +9683,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9703,7 +9701,7 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9717,11 +9715,11 @@
         <v>375</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9740,16 +9738,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9787,19 +9785,19 @@
         <v>20</v>
       </c>
       <c r="AB66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9811,13 +9809,13 @@
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9831,7 +9829,7 @@
         <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9857,16 +9855,16 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9876,29 +9874,29 @@
         <v>20</v>
       </c>
       <c r="S67" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
       </c>
@@ -9915,7 +9913,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9933,7 +9931,7 @@
         <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -9947,7 +9945,7 @@
         <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9970,19 +9968,19 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10007,13 +10005,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10031,7 +10029,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10040,16 +10038,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -10063,7 +10061,7 @@
         <v>378</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10086,13 +10084,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10143,7 +10141,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10161,7 +10159,7 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10175,7 +10173,7 @@
         <v>379</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10198,13 +10196,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10243,19 +10241,19 @@
         <v>20</v>
       </c>
       <c r="AB70" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10267,7 +10265,7 @@
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
@@ -10380,7 +10378,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>99</v>
@@ -10426,10 +10424,10 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>259</v>
@@ -10483,7 +10481,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10501,7 +10499,7 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10538,10 +10536,10 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>262</v>
@@ -10585,19 +10583,19 @@
         <v>20</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10609,7 +10607,7 @@
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
@@ -10768,7 +10766,7 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>276</v>
@@ -10996,7 +10994,7 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>310</v>
@@ -11226,7 +11224,7 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>328</v>
@@ -11319,7 +11317,7 @@
         <v>390</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11348,13 +11346,13 @@
         <v>391</v>
       </c>
       <c r="M80" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11367,7 +11365,7 @@
         <v>392</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>20</v>
@@ -11403,7 +11401,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11418,13 +11416,13 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>20</v>
@@ -11435,7 +11433,7 @@
         <v>393</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11458,16 +11456,16 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>394</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11481,7 +11479,7 @@
         <v>20</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>20</v>
@@ -11517,7 +11515,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11532,13 +11530,13 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>20</v>
@@ -11549,7 +11547,7 @@
         <v>395</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11572,13 +11570,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11629,7 +11627,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11644,13 +11642,13 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>20</v>
@@ -11661,7 +11659,7 @@
         <v>396</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11687,13 +11685,13 @@
         <v>342</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11743,7 +11741,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11758,13 +11756,13 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>20</v>
@@ -11775,7 +11773,7 @@
         <v>397</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>398</v>
@@ -11800,7 +11798,7 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>399</v>
@@ -11810,7 +11808,7 @@
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -11859,7 +11857,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11874,16 +11872,16 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -11891,7 +11889,7 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11914,13 +11912,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11971,7 +11969,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11989,7 +11987,7 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
@@ -12003,11 +12001,11 @@
         <v>402</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12026,16 +12024,16 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12073,19 +12071,19 @@
         <v>20</v>
       </c>
       <c r="AB86" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12097,13 +12095,13 @@
         <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
@@ -12117,7 +12115,7 @@
         <v>403</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12143,16 +12141,16 @@
         <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12162,29 +12160,29 @@
         <v>20</v>
       </c>
       <c r="S87" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="T87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12219,7 +12217,7 @@
         <v>131</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12233,7 +12231,7 @@
         <v>404</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12256,19 +12254,19 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12293,13 +12291,13 @@
         <v>20</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -12317,7 +12315,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12326,16 +12324,16 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
@@ -12349,7 +12347,7 @@
         <v>405</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12372,13 +12370,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12429,7 +12427,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12447,7 +12445,7 @@
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
@@ -12461,7 +12459,7 @@
         <v>406</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12484,13 +12482,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12529,19 +12527,19 @@
         <v>20</v>
       </c>
       <c r="AB90" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12553,7 +12551,7 @@
         <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
@@ -12666,7 +12664,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>99</v>
@@ -12712,10 +12710,10 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>259</v>
@@ -12769,7 +12767,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12787,7 +12785,7 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>20</v>
@@ -12824,10 +12822,10 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>262</v>
@@ -12871,19 +12869,19 @@
         <v>20</v>
       </c>
       <c r="AB93" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12895,7 +12893,7 @@
         <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>20</v>
@@ -13054,7 +13052,7 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>276</v>
@@ -13282,7 +13280,7 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>310</v>
@@ -13512,7 +13510,7 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>328</v>
@@ -13605,7 +13603,7 @@
         <v>417</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13634,13 +13632,13 @@
         <v>418</v>
       </c>
       <c r="M100" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O100" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -13653,7 +13651,7 @@
         <v>20</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>20</v>
@@ -13689,7 +13687,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13704,13 +13702,13 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>20</v>
@@ -13721,7 +13719,7 @@
         <v>419</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13744,16 +13742,16 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>420</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13767,7 +13765,7 @@
         <v>20</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>20</v>
@@ -13803,7 +13801,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13818,13 +13816,13 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>20</v>
@@ -13835,7 +13833,7 @@
         <v>421</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13858,13 +13856,13 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13915,7 +13913,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13930,13 +13928,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>20</v>
@@ -13947,7 +13945,7 @@
         <v>422</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13973,13 +13971,13 @@
         <v>342</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14029,7 +14027,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14044,13 +14042,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>20</v>
@@ -14318,13 +14316,13 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14375,7 +14373,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14391,7 @@
         <v>20</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>20</v>
@@ -14411,7 +14409,7 @@
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14430,16 +14428,16 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14477,19 +14475,19 @@
         <v>20</v>
       </c>
       <c r="AB107" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF107" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14501,13 +14499,13 @@
         <v>20</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>20</v>
@@ -14581,7 +14579,7 @@
         <v>20</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y108" t="s" s="2">
         <v>447</v>
@@ -14660,7 +14658,7 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>454</v>
@@ -14776,7 +14774,7 @@
         <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>465</v>
@@ -14890,7 +14888,7 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>475</v>
@@ -15004,7 +15002,7 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>484</v>
@@ -15116,7 +15114,7 @@
         <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>491</v>
@@ -15228,7 +15226,7 @@
         <v>88</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>496</v>
@@ -15308,7 +15306,7 @@
         <v>501</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>20</v>
@@ -15458,13 +15456,13 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15515,7 +15513,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -15533,7 +15531,7 @@
         <v>20</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>20</v>
@@ -15551,7 +15549,7 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15570,16 +15568,16 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M117" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N117" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15617,19 +15615,19 @@
         <v>20</v>
       </c>
       <c r="AB117" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF117" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15641,13 +15639,13 @@
         <v>20</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>20</v>
@@ -15717,7 +15715,7 @@
         <v>20</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y118" t="s" s="2">
         <v>516</v>
@@ -15796,7 +15794,7 @@
         <v>88</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>524</v>
@@ -15878,7 +15876,7 @@
         <v>530</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>20</v>
@@ -15949,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y120" t="s" s="2">
         <v>516</v>
@@ -16102,10 +16100,10 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>20</v>
@@ -16142,7 +16140,7 @@
         <v>88</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>547</v>
@@ -16220,7 +16218,7 @@
         <v>501</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>20</v>
@@ -16324,7 +16322,7 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>99</v>
@@ -16405,7 +16403,7 @@
         <v>20</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y124" t="s" s="2">
         <v>561</v>
@@ -16824,13 +16822,13 @@
         <v>20</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -16881,7 +16879,7 @@
         <v>20</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -16899,7 +16897,7 @@
         <v>20</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>20</v>
@@ -16917,7 +16915,7 @@
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16936,16 +16934,16 @@
         <v>20</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M129" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N129" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -16995,7 +16993,7 @@
         <v>20</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17007,13 +17005,13 @@
         <v>20</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>20</v>
@@ -17050,7 +17048,7 @@
         <v>88</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>590</v>
@@ -17059,10 +17057,10 @@
         <v>591</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>592</v>
+        <v>143</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>20</v>
@@ -17111,7 +17109,7 @@
         <v>20</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17123,7 +17121,7 @@
         <v>20</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>20</v>
@@ -17140,10 +17138,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17166,17 +17164,17 @@
         <v>20</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>20</v>
@@ -17225,7 +17223,7 @@
         <v>20</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -17243,7 +17241,7 @@
         <v>20</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>20</v>
@@ -17254,10 +17252,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17280,16 +17278,16 @@
         <v>20</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -17315,14 +17313,14 @@
         <v>20</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y132" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z132" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z132" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AA132" t="s" s="2">
         <v>20</v>
       </c>
@@ -17339,7 +17337,7 @@
         <v>20</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>87</v>
@@ -17348,16 +17346,16 @@
         <v>87</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>20</v>
@@ -17368,10 +17366,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17394,17 +17392,17 @@
         <v>20</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>20</v>
@@ -17453,7 +17451,7 @@
         <v>20</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -17471,10 +17469,10 @@
         <v>20</v>
       </c>
       <c r="AL133" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AM133" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>20</v>
@@ -17482,10 +17480,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17511,10 +17509,10 @@
         <v>342</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17565,7 +17563,7 @@
         <v>20</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -17583,7 +17581,7 @@
         <v>20</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>20</v>
@@ -17594,10 +17592,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17620,19 +17618,19 @@
         <v>20</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M135" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>20</v>
@@ -17660,7 +17658,7 @@
         <v>112</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>114</v>
@@ -17681,7 +17679,7 @@
         <v>20</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -17690,16 +17688,16 @@
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2229,17 +2229,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.4140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2248,26 +2248,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.1484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.46875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2229,17 +2229,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.7890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2248,26 +2248,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.46875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.1640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitioner.xlsx
+++ b/docs/StructureDefinition-LTCPractitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
